--- a/doc/simplehbase兼容性测试.xlsx
+++ b/doc/simplehbase兼容性测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>hadoop-2.6.0</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -51,6 +51,26 @@
   </si>
   <si>
     <t>hbase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hadoop-1.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hbase-0.94.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.94.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hbase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hadoop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,10 +142,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -133,9 +156,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -437,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -449,10 +471,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -463,8 +485,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
@@ -473,8 +495,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -483,8 +505,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -493,6 +515,28 @@
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
